--- a/JTC_Forth/SETUP/LAON_IO.xlsx
+++ b/JTC_Forth/SETUP/LAON_IO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@PROJECT\이전프로젝트\JTC (2)\쉐카이나_JTC\SETUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@PROJECT_P\CVI2020\JTC_Forth\SETUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3EE21D-4B67-41B6-9429-92C4D5A38DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB13D3B-EFFF-476C-8852-CD0533966501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1020">
   <si>
     <t>PLC -&gt; PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3156,332 +3156,350 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#10 MC 3</t>
+  </si>
+  <si>
+    <t>#20 MC 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20 MC 3</t>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어블로시간설정DATA2^15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10 MC 4</t>
+  </si>
+  <si>
+    <t>#20 MC 4</t>
+  </si>
+  <si>
+    <t>ERROR#13</t>
+  </si>
+  <si>
+    <t>ERROR#14</t>
+  </si>
+  <si>
+    <t>ERROR#15</t>
+  </si>
+  <si>
+    <t>ERROR#16</t>
+  </si>
+  <si>
+    <t>ERROR#17</t>
+  </si>
+  <si>
+    <t>ERROR#18</t>
+  </si>
+  <si>
+    <t>ERROR#19</t>
+  </si>
+  <si>
+    <t>ERROR#26</t>
+  </si>
+  <si>
+    <t>ERROR#27</t>
+  </si>
+  <si>
+    <t>ERROR#28</t>
+  </si>
+  <si>
+    <t>ERROR#29</t>
+  </si>
+  <si>
+    <t>1번항목 보정신호이상알람</t>
+  </si>
+  <si>
+    <t>2번항목 보정신호이상알람</t>
+  </si>
+  <si>
+    <t>3번항목 보정신호이상알람</t>
+  </si>
+  <si>
+    <t>4번항목 보정신호이상알람</t>
+  </si>
+  <si>
+    <t>5번항목 보정신호이상알람</t>
+  </si>
+  <si>
+    <t>ERROR#38</t>
+  </si>
+  <si>
+    <t>ERROR#39</t>
+  </si>
+  <si>
+    <t>ERROR#40</t>
+  </si>
+  <si>
+    <t>ERROR#41</t>
+  </si>
+  <si>
+    <t>ERROR#42</t>
+  </si>
+  <si>
+    <t>ERROR#43</t>
+  </si>
+  <si>
+    <t>ERROR#44</t>
+  </si>
+  <si>
+    <t>ERROR#45</t>
+  </si>
+  <si>
+    <t>ERROR#46</t>
+  </si>
+  <si>
+    <t>ERROR#47</t>
+  </si>
+  <si>
+    <t>ERROR#48</t>
+  </si>
+  <si>
+    <t>ERROR#49</t>
+  </si>
+  <si>
+    <t>ERROR#50</t>
+  </si>
+  <si>
+    <t>ERROR#51</t>
+  </si>
+  <si>
+    <t>ERROR#52</t>
+  </si>
+  <si>
+    <t>ERROR#53</t>
+  </si>
+  <si>
+    <t>ERROR#54</t>
+  </si>
+  <si>
+    <t>ERROR#55</t>
+  </si>
+  <si>
+    <t>ERROR#56</t>
+  </si>
+  <si>
+    <t>ERROR#57</t>
+  </si>
+  <si>
+    <t>ERROR#58</t>
+  </si>
+  <si>
+    <t>ERROR#59</t>
+  </si>
+  <si>
+    <t>ERROR#60</t>
+  </si>
+  <si>
+    <t>ERROR#61</t>
+  </si>
+  <si>
+    <t>ERROR#62</t>
+  </si>
+  <si>
+    <t>ERROR#63</t>
+  </si>
+  <si>
+    <t>ERROR#64</t>
+  </si>
+  <si>
+    <t>ERROR#65</t>
+  </si>
+  <si>
+    <t>ERROR#66</t>
+  </si>
+  <si>
+    <t>ERROR#67</t>
+  </si>
+  <si>
+    <t>ERROR#68</t>
+  </si>
+  <si>
+    <t>ERROR#69</t>
+  </si>
+  <si>
+    <t>ERROR#70</t>
+  </si>
+  <si>
+    <t>ERROR#71</t>
+  </si>
+  <si>
+    <t>ERROR#72</t>
+  </si>
+  <si>
+    <t>ERROR#73</t>
+  </si>
+  <si>
+    <t>ERROR#74</t>
+  </si>
+  <si>
+    <t>ERROR#75</t>
+  </si>
+  <si>
+    <t>ERROR#76</t>
+  </si>
+  <si>
+    <t>ERROR#77</t>
+  </si>
+  <si>
+    <t>ERROR#78</t>
+  </si>
+  <si>
+    <t>ERROR#79</t>
+  </si>
+  <si>
+    <t>ERROR#80</t>
+  </si>
+  <si>
+    <t>측정리프트_상승/하강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_SELECT:0/SELECT:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_SELECT:0/SELECT:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정부_후진/전진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정상하_상승/하강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_SELECT:0/SELECT:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_SELECT:0/SELECT:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정리프트 상하에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정부상하 상하에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정부전후 전후에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR#23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR#24</t>
+  </si>
+  <si>
+    <t>ERROR#25</t>
+  </si>
+  <si>
+    <t>ERROR#30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIR BLOW  초기/동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBE 내경 초기/동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBE 외경 초기/동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20 MC 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10 MC 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10 MC 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#10 MC 2</t>
-  </si>
-  <si>
-    <t>#10 MC 3</t>
-  </si>
-  <si>
-    <t>#20 MC 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20 MC 2</t>
-  </si>
-  <si>
-    <t>#20 MC 3</t>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어블로시간설정DATA2^15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10 MC 4</t>
-  </si>
-  <si>
-    <t>#20 MC 4</t>
-  </si>
-  <si>
-    <t>ERROR#13</t>
-  </si>
-  <si>
-    <t>ERROR#14</t>
-  </si>
-  <si>
-    <t>ERROR#15</t>
-  </si>
-  <si>
-    <t>ERROR#16</t>
-  </si>
-  <si>
-    <t>ERROR#17</t>
-  </si>
-  <si>
-    <t>ERROR#18</t>
-  </si>
-  <si>
-    <t>ERROR#19</t>
-  </si>
-  <si>
-    <t>ERROR#26</t>
-  </si>
-  <si>
-    <t>ERROR#27</t>
-  </si>
-  <si>
-    <t>ERROR#28</t>
-  </si>
-  <si>
-    <t>ERROR#29</t>
-  </si>
-  <si>
-    <t>1번항목 보정신호이상알람</t>
-  </si>
-  <si>
-    <t>2번항목 보정신호이상알람</t>
-  </si>
-  <si>
-    <t>3번항목 보정신호이상알람</t>
-  </si>
-  <si>
-    <t>4번항목 보정신호이상알람</t>
-  </si>
-  <si>
-    <t>5번항목 보정신호이상알람</t>
-  </si>
-  <si>
-    <t>ERROR#38</t>
-  </si>
-  <si>
-    <t>ERROR#39</t>
-  </si>
-  <si>
-    <t>ERROR#40</t>
-  </si>
-  <si>
-    <t>ERROR#41</t>
-  </si>
-  <si>
-    <t>ERROR#42</t>
-  </si>
-  <si>
-    <t>ERROR#43</t>
-  </si>
-  <si>
-    <t>ERROR#44</t>
-  </si>
-  <si>
-    <t>ERROR#45</t>
-  </si>
-  <si>
-    <t>ERROR#46</t>
-  </si>
-  <si>
-    <t>ERROR#47</t>
-  </si>
-  <si>
-    <t>ERROR#48</t>
-  </si>
-  <si>
-    <t>ERROR#49</t>
-  </si>
-  <si>
-    <t>ERROR#50</t>
-  </si>
-  <si>
-    <t>ERROR#51</t>
-  </si>
-  <si>
-    <t>ERROR#52</t>
-  </si>
-  <si>
-    <t>ERROR#53</t>
-  </si>
-  <si>
-    <t>ERROR#54</t>
-  </si>
-  <si>
-    <t>ERROR#55</t>
-  </si>
-  <si>
-    <t>ERROR#56</t>
-  </si>
-  <si>
-    <t>ERROR#57</t>
-  </si>
-  <si>
-    <t>ERROR#58</t>
-  </si>
-  <si>
-    <t>ERROR#59</t>
-  </si>
-  <si>
-    <t>ERROR#60</t>
-  </si>
-  <si>
-    <t>ERROR#61</t>
-  </si>
-  <si>
-    <t>ERROR#62</t>
-  </si>
-  <si>
-    <t>ERROR#63</t>
-  </si>
-  <si>
-    <t>ERROR#64</t>
-  </si>
-  <si>
-    <t>ERROR#65</t>
-  </si>
-  <si>
-    <t>ERROR#66</t>
-  </si>
-  <si>
-    <t>ERROR#67</t>
-  </si>
-  <si>
-    <t>ERROR#68</t>
-  </si>
-  <si>
-    <t>ERROR#69</t>
-  </si>
-  <si>
-    <t>ERROR#70</t>
-  </si>
-  <si>
-    <t>ERROR#71</t>
-  </si>
-  <si>
-    <t>ERROR#72</t>
-  </si>
-  <si>
-    <t>ERROR#73</t>
-  </si>
-  <si>
-    <t>ERROR#74</t>
-  </si>
-  <si>
-    <t>ERROR#75</t>
-  </si>
-  <si>
-    <t>ERROR#76</t>
-  </si>
-  <si>
-    <t>ERROR#77</t>
-  </si>
-  <si>
-    <t>ERROR#78</t>
-  </si>
-  <si>
-    <t>ERROR#79</t>
-  </si>
-  <si>
-    <t>ERROR#80</t>
-  </si>
-  <si>
-    <t>측정리프트_상승/하강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON_SELECT:0/SELECT:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON_SELECT:0/SELECT:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정부_후진/전진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정상하_상승/하강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON_SELECT:0/SELECT:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NON_SELECT:0/SELECT:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정리프트 상하에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정부상하 상하에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정부전후 전후에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR#23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR#24</t>
-  </si>
-  <si>
-    <t>ERROR#25</t>
-  </si>
-  <si>
-    <t>ERROR#30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIR BLOW  초기/동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBE 내경 초기/동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROBE 외경 초기/동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단차 역방향 프로브로 인한 -ok =&gt; +ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ok =&gt; -ok / PLC에서 바꿔서 보냄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3525,7 +3543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3550,8 +3568,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3618,13 +3648,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thick">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3680,6 +3719,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4007,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M247" sqref="M247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4028,20 +4085,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C2" s="1"/>
@@ -5437,7 +5494,7 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">M022 </v>
+        <v>M022 #10 MC 3</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
@@ -5446,13 +5503,16 @@
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="20" t="str">
         <f t="shared" si="2"/>
         <v>022</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="20">
         <f t="shared" si="3"/>
         <v>34</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>1016</v>
       </c>
       <c r="H37">
         <v>34</v>
@@ -5471,7 +5531,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">M023 </v>
+        <v>M023 #10 MC 4</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
@@ -5480,13 +5540,16 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="20" t="str">
         <f t="shared" si="2"/>
         <v>023</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="20">
         <f t="shared" si="3"/>
         <v>35</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>1015</v>
       </c>
       <c r="H38">
         <v>35</v>
@@ -5686,7 +5749,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="5"/>
-        <v>M028 #10 MC 1</v>
+        <v>M028 #20 MC 1</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
@@ -5703,8 +5766,8 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F43" t="s">
-        <v>916</v>
+      <c r="F43" s="21" t="s">
+        <v>918</v>
       </c>
       <c r="H43">
         <v>40</v>
@@ -5729,7 +5792,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="5"/>
-        <v>M029 #10 MC 2</v>
+        <v>M029 #20 MC 2</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
@@ -5746,8 +5809,8 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F44" t="s">
-        <v>917</v>
+      <c r="F44" s="21" t="s">
+        <v>1014</v>
       </c>
       <c r="H44">
         <v>41</v>
@@ -5781,16 +5844,16 @@
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="3" t="str">
+      <c r="D45" s="23" t="str">
         <f t="shared" si="2"/>
         <v>02A</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="23">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="F45" t="s">
-        <v>918</v>
+      <c r="F45" s="24" t="s">
+        <v>917</v>
       </c>
       <c r="H45">
         <v>42</v>
@@ -5824,16 +5887,16 @@
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="3" t="str">
+      <c r="D46" s="23" t="str">
         <f t="shared" si="2"/>
         <v>02B</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="23">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="F46" t="s">
-        <v>938</v>
+      <c r="F46" s="24" t="s">
+        <v>936</v>
       </c>
       <c r="H46">
         <v>43</v>
@@ -5855,7 +5918,7 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="5"/>
-        <v>M02C #20 MC 1</v>
+        <v>M02C #10 MC 1</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
@@ -5872,8 +5935,8 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="F47" t="s">
-        <v>919</v>
+      <c r="F47" s="21" t="s">
+        <v>916</v>
       </c>
       <c r="H47">
         <v>44</v>
@@ -5895,7 +5958,7 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="5"/>
-        <v>M02D #20 MC 2</v>
+        <v>M02D #10 MC 2</v>
       </c>
       <c r="B48" t="str">
         <f>_xlfn.CONCAT(I48,J48," ",L48)</f>
@@ -5912,8 +5975,8 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="F48" t="s">
-        <v>920</v>
+      <c r="F48" s="21" t="s">
+        <v>1017</v>
       </c>
       <c r="H48">
         <v>45</v>
@@ -5952,8 +6015,8 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="F49" t="s">
-        <v>921</v>
+      <c r="F49" s="22" t="s">
+        <v>919</v>
       </c>
       <c r="H49">
         <v>46</v>
@@ -5992,8 +6055,8 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="F50" t="s">
-        <v>939</v>
+      <c r="F50" s="22" t="s">
+        <v>937</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -6661,7 +6724,7 @@
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H67">
         <v>64</v>
@@ -6680,7 +6743,7 @@
         <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N67" s="1"/>
     </row>
@@ -6708,7 +6771,7 @@
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H68">
         <v>65</v>
@@ -6727,7 +6790,7 @@
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="N68" s="1"/>
     </row>
@@ -6755,7 +6818,7 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H69">
         <v>66</v>
@@ -6774,7 +6837,7 @@
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N69" s="1"/>
     </row>
@@ -6802,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H70">
         <v>67</v>
@@ -6821,7 +6884,7 @@
         <v>19</v>
       </c>
       <c r="M70" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="N70" s="1"/>
     </row>
@@ -6849,7 +6912,7 @@
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H71">
         <v>68</v>
@@ -6868,7 +6931,7 @@
         <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="N71" s="1"/>
     </row>
@@ -6896,7 +6959,7 @@
         <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H72">
         <v>69</v>
@@ -6915,7 +6978,7 @@
         <v>21</v>
       </c>
       <c r="M72" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="N72" s="1"/>
     </row>
@@ -6960,7 +7023,7 @@
         <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N73" s="1"/>
     </row>
@@ -7005,7 +7068,7 @@
         <v>23</v>
       </c>
       <c r="M74" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N74" s="1"/>
     </row>
@@ -7050,7 +7113,7 @@
         <v>24</v>
       </c>
       <c r="M75" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N75" s="1"/>
     </row>
@@ -7095,7 +7158,7 @@
         <v>25</v>
       </c>
       <c r="M76" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N76" s="1"/>
     </row>
@@ -7140,7 +7203,7 @@
         <v>26</v>
       </c>
       <c r="M77" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N77" s="1"/>
     </row>
@@ -7185,7 +7248,7 @@
         <v>27</v>
       </c>
       <c r="M78" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N78" s="1"/>
     </row>
@@ -7230,7 +7293,7 @@
         <v>28</v>
       </c>
       <c r="M79" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="N79" s="1"/>
     </row>
@@ -7275,7 +7338,7 @@
         <v>29</v>
       </c>
       <c r="M80" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N80" s="1"/>
     </row>
@@ -7320,7 +7383,7 @@
         <v>30</v>
       </c>
       <c r="M81" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N81" s="1"/>
     </row>
@@ -7365,7 +7428,7 @@
         <v>31</v>
       </c>
       <c r="M82" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N82" s="1"/>
     </row>
@@ -7410,7 +7473,7 @@
         <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N83" s="1"/>
     </row>
@@ -7455,7 +7518,7 @@
         <v>33</v>
       </c>
       <c r="M84" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N84" s="1"/>
     </row>
@@ -7500,7 +7563,7 @@
         <v>34</v>
       </c>
       <c r="M85" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N85" s="1"/>
     </row>
@@ -7545,7 +7608,7 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N86" s="1"/>
     </row>
@@ -7590,7 +7653,7 @@
         <v>36</v>
       </c>
       <c r="M87" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="N87" s="1"/>
     </row>
@@ -7635,7 +7698,7 @@
         <v>37</v>
       </c>
       <c r="M88" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N88" s="1"/>
     </row>
@@ -7680,7 +7743,7 @@
         <v>38</v>
       </c>
       <c r="M89" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N89" s="1"/>
     </row>
@@ -7725,7 +7788,7 @@
         <v>39</v>
       </c>
       <c r="M90" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N90" s="1"/>
     </row>
@@ -7770,7 +7833,7 @@
         <v>40</v>
       </c>
       <c r="M91" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="N91" s="1"/>
     </row>
@@ -7815,7 +7878,7 @@
         <v>41</v>
       </c>
       <c r="M92" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N92" s="1"/>
     </row>
@@ -7860,7 +7923,7 @@
         <v>42</v>
       </c>
       <c r="M93" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N93" s="1"/>
     </row>
@@ -7905,7 +7968,7 @@
         <v>43</v>
       </c>
       <c r="M94" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N94" s="1"/>
     </row>
@@ -7950,7 +8013,7 @@
         <v>44</v>
       </c>
       <c r="M95" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N95" s="1"/>
     </row>
@@ -7995,7 +8058,7 @@
         <v>45</v>
       </c>
       <c r="M96" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N96" s="1"/>
     </row>
@@ -8040,7 +8103,7 @@
         <v>46</v>
       </c>
       <c r="M97" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N97" s="1"/>
     </row>
@@ -8085,7 +8148,7 @@
         <v>47</v>
       </c>
       <c r="M98" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N98" s="1"/>
     </row>
@@ -8130,7 +8193,7 @@
         <v>48</v>
       </c>
       <c r="M99" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.45">
@@ -8174,7 +8237,7 @@
         <v>49</v>
       </c>
       <c r="M100" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
@@ -8217,7 +8280,7 @@
         <v>50</v>
       </c>
       <c r="M101" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
@@ -8260,7 +8323,7 @@
         <v>51</v>
       </c>
       <c r="M102" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.45">
@@ -8303,7 +8366,7 @@
         <v>52</v>
       </c>
       <c r="M103" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.45">
@@ -8346,7 +8409,7 @@
         <v>53</v>
       </c>
       <c r="M104" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.45">
@@ -8389,7 +8452,7 @@
         <v>54</v>
       </c>
       <c r="M105" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.45">
@@ -8432,7 +8495,7 @@
         <v>55</v>
       </c>
       <c r="M106" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.45">
@@ -8741,7 +8804,7 @@
         <v>432</v>
       </c>
       <c r="M115" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
@@ -8778,7 +8841,7 @@
         <v>433</v>
       </c>
       <c r="M116" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
@@ -8815,7 +8878,7 @@
         <v>434</v>
       </c>
       <c r="M117" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
@@ -8852,7 +8915,7 @@
         <v>435</v>
       </c>
       <c r="M118" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
@@ -8889,7 +8952,7 @@
         <v>436</v>
       </c>
       <c r="M119" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
@@ -8926,7 +8989,7 @@
         <v>437</v>
       </c>
       <c r="M120" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
@@ -8963,7 +9026,7 @@
         <v>438</v>
       </c>
       <c r="M121" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
@@ -9000,7 +9063,7 @@
         <v>439</v>
       </c>
       <c r="M122" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
@@ -9037,7 +9100,7 @@
         <v>440</v>
       </c>
       <c r="M123" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
@@ -9074,7 +9137,7 @@
         <v>441</v>
       </c>
       <c r="M124" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
@@ -9111,7 +9174,7 @@
         <v>442</v>
       </c>
       <c r="M125" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
@@ -9148,7 +9211,7 @@
         <v>443</v>
       </c>
       <c r="M126" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
@@ -9185,7 +9248,7 @@
         <v>444</v>
       </c>
       <c r="M127" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
@@ -9222,7 +9285,7 @@
         <v>445</v>
       </c>
       <c r="M128" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.45">
@@ -9259,7 +9322,7 @@
         <v>446</v>
       </c>
       <c r="M129" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.45">
@@ -9296,7 +9359,7 @@
         <v>447</v>
       </c>
       <c r="M130" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.45">
@@ -13256,7 +13319,7 @@
         <f t="shared" si="27"/>
         <v>561</v>
       </c>
-      <c r="L244" s="5" t="s">
+      <c r="L244" s="19" t="s">
         <v>113</v>
       </c>
       <c r="M244" s="5"/>
@@ -13336,7 +13399,7 @@
         <f t="shared" si="27"/>
         <v>563</v>
       </c>
-      <c r="L246" s="5" t="s">
+      <c r="L246" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M246" s="5"/>
@@ -13456,7 +13519,7 @@
         <f t="shared" si="27"/>
         <v>566</v>
       </c>
-      <c r="L249" s="5" t="s">
+      <c r="L249" s="19" t="s">
         <v>118</v>
       </c>
       <c r="M249" s="5"/>
@@ -13536,7 +13599,7 @@
         <f t="shared" si="27"/>
         <v>568</v>
       </c>
-      <c r="L251" s="5" t="s">
+      <c r="L251" s="19" t="s">
         <v>120</v>
       </c>
       <c r="M251" s="5"/>
@@ -13656,7 +13719,7 @@
         <f t="shared" si="27"/>
         <v>571</v>
       </c>
-      <c r="L254" s="5" t="s">
+      <c r="L254" s="19" t="s">
         <v>123</v>
       </c>
       <c r="M254" s="5"/>
@@ -13681,7 +13744,7 @@
         <v>252</v>
       </c>
       <c r="F255" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H255">
         <v>252</v>
@@ -13721,7 +13784,7 @@
         <v>253</v>
       </c>
       <c r="F256" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H256">
         <v>253</v>
@@ -13736,7 +13799,7 @@
         <f t="shared" si="27"/>
         <v>573</v>
       </c>
-      <c r="L256" s="5" t="s">
+      <c r="L256" s="19" t="s">
         <v>125</v>
       </c>
       <c r="M256" s="5"/>
@@ -13761,7 +13824,7 @@
         <v>254</v>
       </c>
       <c r="F257" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H257">
         <v>254</v>
@@ -13801,7 +13864,7 @@
         <v>255</v>
       </c>
       <c r="F258" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H258">
         <v>255</v>
@@ -13841,7 +13904,7 @@
         <v>256</v>
       </c>
       <c r="F259" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H259">
         <v>256</v>
@@ -13856,10 +13919,12 @@
         <f t="shared" si="27"/>
         <v>576</v>
       </c>
-      <c r="L259" s="5" t="s">
+      <c r="L259" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="M259" s="5"/>
+      <c r="M259" s="5" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260" t="str">
@@ -13881,7 +13946,7 @@
         <v>257</v>
       </c>
       <c r="F260" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H260">
         <v>257</v>
@@ -13921,7 +13986,7 @@
         <v>258</v>
       </c>
       <c r="F261" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H261">
         <v>258</v>
@@ -13936,10 +14001,12 @@
         <f t="shared" si="27"/>
         <v>578</v>
       </c>
-      <c r="L261" s="5" t="s">
+      <c r="L261" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="M261" s="5"/>
+      <c r="M261" s="5" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A262" t="str">
@@ -13961,7 +14028,7 @@
         <v>259</v>
       </c>
       <c r="F262" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H262">
         <v>259</v>
@@ -14001,7 +14068,7 @@
         <v>260</v>
       </c>
       <c r="F263" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H263">
         <v>260</v>
@@ -14041,7 +14108,7 @@
         <v>261</v>
       </c>
       <c r="F264" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H264">
         <v>261</v>
@@ -14056,7 +14123,7 @@
         <f t="shared" si="27"/>
         <v>581</v>
       </c>
-      <c r="L264" s="5" t="s">
+      <c r="L264" s="19" t="s">
         <v>133</v>
       </c>
       <c r="M264" s="5"/>
@@ -14081,7 +14148,7 @@
         <v>262</v>
       </c>
       <c r="F265" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H265">
         <v>262</v>
@@ -14121,7 +14188,7 @@
         <v>263</v>
       </c>
       <c r="F266" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H266">
         <v>263</v>
@@ -14136,7 +14203,7 @@
         <f t="shared" si="27"/>
         <v>583</v>
       </c>
-      <c r="L266" s="5" t="s">
+      <c r="L266" s="19" t="s">
         <v>135</v>
       </c>
       <c r="M266" s="5"/>
@@ -14161,7 +14228,7 @@
         <v>264</v>
       </c>
       <c r="F267" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H267">
         <v>264</v>
@@ -14201,7 +14268,7 @@
         <v>265</v>
       </c>
       <c r="F268" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H268">
         <v>265</v>
@@ -14241,7 +14308,7 @@
         <v>266</v>
       </c>
       <c r="F269" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H269">
         <v>266</v>
@@ -14256,7 +14323,7 @@
         <f t="shared" si="27"/>
         <v>586</v>
       </c>
-      <c r="L269" s="5" t="s">
+      <c r="L269" s="19" t="s">
         <v>138</v>
       </c>
       <c r="M269" s="5"/>
@@ -14281,7 +14348,7 @@
         <v>267</v>
       </c>
       <c r="F270" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H270">
         <v>267</v>
@@ -14321,7 +14388,7 @@
         <v>268</v>
       </c>
       <c r="F271" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H271">
         <v>268</v>
@@ -14336,7 +14403,7 @@
         <f t="shared" si="27"/>
         <v>588</v>
       </c>
-      <c r="L271" s="5" t="s">
+      <c r="L271" s="19" t="s">
         <v>140</v>
       </c>
       <c r="M271" s="5"/>
@@ -14361,7 +14428,7 @@
         <v>269</v>
       </c>
       <c r="F272" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H272">
         <v>269</v>
@@ -14456,7 +14523,7 @@
         <f t="shared" si="27"/>
         <v>591</v>
       </c>
-      <c r="L274" s="5" t="s">
+      <c r="L274" s="19" t="s">
         <v>143</v>
       </c>
       <c r="M274" s="5"/>
@@ -14481,7 +14548,7 @@
         <v>272</v>
       </c>
       <c r="F275" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H275">
         <v>272</v>
@@ -14521,7 +14588,7 @@
         <v>273</v>
       </c>
       <c r="F276" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H276">
         <v>273</v>
@@ -14536,7 +14603,7 @@
         <f t="shared" si="27"/>
         <v>593</v>
       </c>
-      <c r="L276" s="5" t="s">
+      <c r="L276" s="19" t="s">
         <v>145</v>
       </c>
       <c r="M276" s="5"/>
@@ -14561,7 +14628,7 @@
         <v>274</v>
       </c>
       <c r="F277" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H277">
         <v>274</v>
@@ -14601,7 +14668,7 @@
         <v>275</v>
       </c>
       <c r="F278" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H278">
         <v>275</v>
@@ -14641,7 +14708,7 @@
         <v>276</v>
       </c>
       <c r="F279" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H279">
         <v>276</v>
@@ -14656,7 +14723,7 @@
         <f t="shared" si="27"/>
         <v>596</v>
       </c>
-      <c r="L279" s="5" t="s">
+      <c r="L279" s="19" t="s">
         <v>148</v>
       </c>
       <c r="M279" s="5"/>
@@ -14681,7 +14748,7 @@
         <v>277</v>
       </c>
       <c r="F280" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H280">
         <v>277</v>
@@ -14721,7 +14788,7 @@
         <v>278</v>
       </c>
       <c r="F281" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H281">
         <v>278</v>
@@ -14736,7 +14803,7 @@
         <f t="shared" si="27"/>
         <v>598</v>
       </c>
-      <c r="L281" s="5" t="s">
+      <c r="L281" s="19" t="s">
         <v>150</v>
       </c>
       <c r="M281" s="5"/>
@@ -14761,7 +14828,7 @@
         <v>279</v>
       </c>
       <c r="F282" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H282">
         <v>279</v>
@@ -14801,7 +14868,7 @@
         <v>280</v>
       </c>
       <c r="F283" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H283">
         <v>280</v>
@@ -14841,7 +14908,7 @@
         <v>281</v>
       </c>
       <c r="F284" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H284">
         <v>281</v>
@@ -14881,7 +14948,7 @@
         <v>282</v>
       </c>
       <c r="F285" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H285">
         <v>282</v>
@@ -14921,7 +14988,7 @@
         <v>283</v>
       </c>
       <c r="F286" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H286">
         <v>283</v>
@@ -14961,7 +15028,7 @@
         <v>284</v>
       </c>
       <c r="F287" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H287">
         <v>284</v>
@@ -15001,7 +15068,7 @@
         <v>285</v>
       </c>
       <c r="F288" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H288">
         <v>285</v>
@@ -15041,7 +15108,7 @@
         <v>286</v>
       </c>
       <c r="F289" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H289">
         <v>286</v>
@@ -15081,7 +15148,7 @@
         <v>287</v>
       </c>
       <c r="F290" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H290">
         <v>287</v>
@@ -15121,7 +15188,7 @@
         <v>288</v>
       </c>
       <c r="F291" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H291">
         <v>288</v>
@@ -15161,7 +15228,7 @@
         <v>289</v>
       </c>
       <c r="F292" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H292">
         <v>289</v>
@@ -15201,7 +15268,7 @@
         <v>290</v>
       </c>
       <c r="F293" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H293">
         <v>290</v>
@@ -15241,7 +15308,7 @@
         <v>291</v>
       </c>
       <c r="F294" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H294">
         <v>291</v>
@@ -15281,7 +15348,7 @@
         <v>292</v>
       </c>
       <c r="F295" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H295">
         <v>292</v>
@@ -15321,7 +15388,7 @@
         <v>293</v>
       </c>
       <c r="F296" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H296">
         <v>293</v>
@@ -15361,7 +15428,7 @@
         <v>294</v>
       </c>
       <c r="F297" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H297">
         <v>294</v>
@@ -15401,7 +15468,7 @@
         <v>295</v>
       </c>
       <c r="F298" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H298">
         <v>295</v>
@@ -15441,7 +15508,7 @@
         <v>296</v>
       </c>
       <c r="F299" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H299">
         <v>296</v>
@@ -15481,7 +15548,7 @@
         <v>297</v>
       </c>
       <c r="F300" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H300">
         <v>297</v>
@@ -15521,7 +15588,7 @@
         <v>298</v>
       </c>
       <c r="F301" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H301">
         <v>298</v>
@@ -15561,7 +15628,7 @@
         <v>299</v>
       </c>
       <c r="F302" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H302">
         <v>299</v>
@@ -15601,7 +15668,7 @@
         <v>300</v>
       </c>
       <c r="F303" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H303">
         <v>300</v>
@@ -15641,7 +15708,7 @@
         <v>301</v>
       </c>
       <c r="F304" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H304">
         <v>301</v>
@@ -15681,7 +15748,7 @@
         <v>302</v>
       </c>
       <c r="F305" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H305">
         <v>302</v>
@@ -15721,7 +15788,7 @@
         <v>303</v>
       </c>
       <c r="F306" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H306">
         <v>303</v>
@@ -15761,7 +15828,7 @@
         <v>304</v>
       </c>
       <c r="F307" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H307">
         <v>304</v>
@@ -15801,7 +15868,7 @@
         <v>305</v>
       </c>
       <c r="F308" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H308">
         <v>305</v>
@@ -15841,7 +15908,7 @@
         <v>306</v>
       </c>
       <c r="F309" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H309">
         <v>306</v>
@@ -15881,7 +15948,7 @@
         <v>307</v>
       </c>
       <c r="F310" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H310">
         <v>307</v>
@@ -15921,7 +15988,7 @@
         <v>308</v>
       </c>
       <c r="F311" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H311">
         <v>308</v>
@@ -15961,7 +16028,7 @@
         <v>309</v>
       </c>
       <c r="F312" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H312">
         <v>309</v>
@@ -16001,7 +16068,7 @@
         <v>310</v>
       </c>
       <c r="F313" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H313">
         <v>310</v>
@@ -16041,7 +16108,7 @@
         <v>311</v>
       </c>
       <c r="F314" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H314">
         <v>311</v>
@@ -16081,7 +16148,7 @@
         <v>312</v>
       </c>
       <c r="F315" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H315">
         <v>312</v>
@@ -16121,7 +16188,7 @@
         <v>313</v>
       </c>
       <c r="F316" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H316">
         <v>313</v>
@@ -16161,7 +16228,7 @@
         <v>314</v>
       </c>
       <c r="F317" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H317">
         <v>314</v>
@@ -16201,7 +16268,7 @@
         <v>315</v>
       </c>
       <c r="F318" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H318">
         <v>315</v>
@@ -16241,7 +16308,7 @@
         <v>316</v>
       </c>
       <c r="F319" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H319">
         <v>316</v>
@@ -16281,7 +16348,7 @@
         <v>317</v>
       </c>
       <c r="F320" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H320">
         <v>317</v>
@@ -16321,7 +16388,7 @@
         <v>318</v>
       </c>
       <c r="F321" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H321">
         <v>318</v>
@@ -16361,7 +16428,7 @@
         <v>319</v>
       </c>
       <c r="F322" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H322">
         <v>319</v>
@@ -16424,16 +16491,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
